--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251030_201456.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251030_201456.xlsx
@@ -4279,7 +4279,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4659,7 +4659,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
